--- a/similarities/split_global/harmonic_similarity_timestamps_149.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_149.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:30.380000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:21.560000')]</t>
+          <t>('0:00:14.628775', '0:00:26.430680')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
+          <t>('0:02:09.380000', '0:02:14.380000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=21.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000'), ('0:00:26.360000', '0:00:34.360000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:20.960000'), ('0:00:24.640000', '0:00:33')]</t>
+          <t>('0:00:19.780000', '0:00:23.120000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=26.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>isophonics_116</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7/b7', 'Bb:maj']]</t>
+          <t>['A:min', 'B:min', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>['B:min', 'C#:min', 'A/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:49.217000', '0:00:55.415000')]</t>
+          <t>('0:00:55.920022', '0:00:59.635215')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:04.580000', '0:01:18.840000')]</t>
+          <t>('0:00:32.130000', '0:00:38.808000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=49.217']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-116#t=55.920022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=32.13</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:46.932280', '0:00:57.636679')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:01:58.440000', '0:02:02.340000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A/3']]</t>
+          <t>['A:maj', 'D:min', 'A#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db'], ['Ab', 'Db', 'Ab']]</t>
+          <t>['G', 'C:min', 'Ab']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:12.743000', '0:00:16.216000'), ('0:00:13.527000', '0:00:17.058000')]</t>
+          <t>('0:00:07.040000', '0:00:11.460000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:58.640000', '0:02:03.070000'), ('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:00:54.639000', '0:00:59.554000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=7.04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=118.64', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=54.639</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>isophonics_97</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D:min', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['F:min', 'A#:7/F', 'D#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:07.300000'), ('0:02:10.840000', '0:02:15.980000'), ('0:00:37.940000', '0:00:42.840000')]</t>
+          <t>('0:00:09.330793', '0:00:22.635827')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000'), ('0:01:20.200000', '0:01:26.860000'), ('0:00:36.400000', '0:00:41.700000')]</t>
+          <t>('0:00:53.400000', '0:00:56.560000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=37.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-97#t=9.330793</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=53.4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:49.900000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:16.380000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:17.680000', '0:00:20.040000')]</t>
+          <t>('0:00:01.440000', '0:00:06.660000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:40.450000', '0:00:45.420000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=40.45']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:08.350000', '0:00:11.880000')]</t>
+          <t>('0:00:58.320000', '0:01:01.680000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:23.575000', '0:00:34.995000')]</t>
+          <t>('0:00:19.720000', '0:00:23.080000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=19.72</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'G:hdim7', 'C:7', 'F:min']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:12.380000', '0:00:20.640000')]</t>
+          <t>('0:00:06.726778', '0:00:13.147096')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:05.820000', '0:01:24.640000')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=12.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=65.82']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:01:16.560000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>jaah_37</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['A:min7', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:min7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:00:35.150000', '0:00:41.300000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:06.880000')]</t>
+          <t>('0:00:38.371000', '0:00:43.027000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-37#t=35.15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=38.371</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'A:min/C']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D'], ['A:7', 'D', 'E:min']]</t>
+          <t>['F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:08.640000', '0:01:17.380000'), ('0:00:24.120000', '0:00:28.300000')]</t>
+          <t>('0:00:11.360000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329'), ('0:01:11.679925', '0:01:16.022057')]</t>
+          <t>('0:00:18.820000', '0:00:46.240000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=24.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=11.36</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=71.679925']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=18.82</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:01:58.925813')]</t>
+          <t>('0:00:54.060000', '0:00:58.260000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:20.440000', '0:00:26.160000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=54.06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=20.44</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
